--- a/biology/Médecine/1233_en_santé_et_médecine/1233_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1233_en_santé_et_médecine/1233_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1233_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1233_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1233 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1233_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1233_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Mars : première mention de la maladrerie Saint-Lazare de La Ferté-Nabert, devenue hôtel-Dieu, et réunie au XVIIe siècle à l'hôpital général d'Orléans[1],[2].
-Les échevins de Lille « décident que seuls les  bourgeois et leurs enfants pourront être soignés à la maison des ladres bourgeois, maladrerie urbaine située hors les murs, près de la porte des Malades[3] ».
-Jeanne de Constantinople, comtesse de Flandre, fonde l'hôpital Saint-Sauveur de Lille[4].
-Fondation à Oxford en Angleterre, par le roi Henri III, à l'emplacement d'un ancien hôpital Saint-Jean, de l'hôpital Saint-Jean-Baptiste sur le site duquel, en 1457, William Waynflete fera construire le Magdalen College[5].
-Fondation de la maladrerie de Thuin, dans la principauté de Liège[6].
-Le prieuré de Saint-Mayme est rattaché à l'hôpital du Pas de Rodez[7].
-Le plus ancien hospice de Toulouse, fondé pour les pauvres par le comte Raymond VII entre 1071 et 1080, est affecté à l'accueil « d'étudiants et d'autres pauvres », étape vers sa transformation, au XIIIe ou XIVe siècle, en un collège Saint-Raymond dont le bâtiment est aujourd'hui occupé par le musée d'archéologie de la ville[8].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Mars : première mention de la maladrerie Saint-Lazare de La Ferté-Nabert, devenue hôtel-Dieu, et réunie au XVIIe siècle à l'hôpital général d'Orléans,.
+Les échevins de Lille « décident que seuls les  bourgeois et leurs enfants pourront être soignés à la maison des ladres bourgeois, maladrerie urbaine située hors les murs, près de la porte des Malades ».
+Jeanne de Constantinople, comtesse de Flandre, fonde l'hôpital Saint-Sauveur de Lille.
+Fondation à Oxford en Angleterre, par le roi Henri III, à l'emplacement d'un ancien hôpital Saint-Jean, de l'hôpital Saint-Jean-Baptiste sur le site duquel, en 1457, William Waynflete fera construire le Magdalen College.
+Fondation de la maladrerie de Thuin, dans la principauté de Liège.
+Le prieuré de Saint-Mayme est rattaché à l'hôpital du Pas de Rodez.
+Le plus ancien hospice de Toulouse, fondé pour les pauvres par le comte Raymond VII entre 1071 et 1080, est affecté à l'accueil « d'étudiants et d'autres pauvres », étape vers sa transformation, au XIIIe ou XIVe siècle, en un collège Saint-Raymond dont le bâtiment est aujourd'hui occupé par le musée d'archéologie de la ville.</t>
         </is>
       </c>
     </row>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1233_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1233_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,10 +561,12 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>15 août : Philippe Benizi (mort en 1285), médecin italien, ministre général de l'ordre des Serfs de la Vierge[9].
-Ibn al-Quff (en) (mort en 1286), médecin et chirurgien arabe, auteur du premier traité de langue arabe exclusivement consacré à la chirurgie[10].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>15 août : Philippe Benizi (mort en 1285), médecin italien, ministre général de l'ordre des Serfs de la Vierge.
+Ibn al-Quff (en) (mort en 1286), médecin et chirurgien arabe, auteur du premier traité de langue arabe exclusivement consacré à la chirurgie.</t>
         </is>
       </c>
     </row>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1233_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1233_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,9 +594,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Raḍi ad-Din ar-Raḥbi (né à une date inconnue), médecin et professeur de médecine à Damas, en Syrie[11].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Raḍi ad-Din ar-Raḥbi (né à une date inconnue), médecin et professeur de médecine à Damas, en Syrie.
 </t>
         </is>
       </c>
